--- a/patient_data/patient_18.xlsx
+++ b/patient_data/patient_18.xlsx
@@ -551,16 +551,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -628,16 +628,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -705,16 +705,16 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -782,16 +782,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1365,13 +1365,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1442,13 +1442,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1490,16 +1490,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1519,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1567,16 +1567,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2094,13 +2094,13 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2171,13 +2171,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
